--- a/data/trans_orig/IP36A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP36A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3958D63E-46F5-4941-973C-10618991B618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2979C707-D739-407A-A1A9-2F39A167F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{440F09AC-F8C3-4E7D-9167-7B4982332B1A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A1AA90C-BDC6-460D-A0EF-E07DE39397D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="282">
   <si>
     <t>Adultos según si perciben alguna pensión en 2007 (Tasa respuesta: 44,01%)</t>
   </si>
@@ -86,55 +86,55 @@
     <t>19,69%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>19,37%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
   </si>
   <si>
     <t>80,31%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>80,63%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,55 +146,55 @@
     <t>4,66%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -206,28 +206,28 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,52%</t>
+    <t>11,1%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
   </si>
   <si>
     <t>96,58%</t>
   </si>
   <si>
-    <t>88,48%</t>
+    <t>88,9%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -236,70 +236,70 @@
     <t>94,51%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>7,01%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>7,23%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
   </si>
   <si>
     <t>92,77%</t>
   </si>
   <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -320,118 +320,112 @@
     <t>16,16%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>16,35%</t>
   </si>
   <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>83,84%</t>
   </si>
   <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>83,47%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>83,65%</t>
   </si>
   <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>90,98%</t>
   </si>
   <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>5,03%</t>
@@ -440,52 +434,52 @@
     <t>1,27%</t>
   </si>
   <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
+    <t>87,68%</t>
+  </si>
+  <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>7,69%</t>
+    <t>7,74%</t>
   </si>
   <si>
     <t>12,69%</t>
@@ -494,19 +488,19 @@
     <t>10,07%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>89,98%</t>
@@ -515,211 +509,235 @@
     <t>87,31%</t>
   </si>
   <si>
-    <t>92,31%</t>
+    <t>92,26%</t>
   </si>
   <si>
     <t>89,93%</t>
   </si>
   <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2015 (Tasa respuesta: 49,58%)</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2016 (Tasa respuesta: 49,58%)</t>
   </si>
   <si>
     <t>22,72%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>23,91%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
   </si>
   <si>
     <t>77,28%</t>
   </si>
   <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>76,09%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>81,47%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
   </si>
   <si>
     <t>8,04%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
   </si>
   <si>
     <t>9,42%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
   </si>
   <si>
     <t>91,96%</t>
   </si>
   <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>90,58%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>10,18%</t>
   </si>
   <si>
-    <t>18,32%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>5,21%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>4,12%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>81,68%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>95,88%</t>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>12,27%</t>
   </si>
   <si>
-    <t>15,32%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>10,34%</t>
   </si>
   <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
   </si>
   <si>
     <t>87,73%</t>
   </si>
   <si>
-    <t>84,68%</t>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
   </si>
   <si>
     <t>89,66%</t>
   </si>
   <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
   </si>
   <si>
     <t>Adultos según si perciben alguna pensión en 2023 (Tasa respuesta: 4,06%)</t>
@@ -728,97 +746,85 @@
     <t>24,82%</t>
   </si>
   <si>
-    <t>76,7%</t>
+    <t>78,74%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>84,32%</t>
+    <t>84,53%</t>
   </si>
   <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
+    <t>58,13%</t>
   </si>
   <si>
     <t>75,18%</t>
   </si>
   <si>
-    <t>23,3%</t>
+    <t>21,26%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>15,68%</t>
+    <t>15,47%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>41,87%</t>
   </si>
   <si>
     <t>26,49%</t>
   </si>
   <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
   </si>
   <si>
     <t>15,22%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>34,83%</t>
   </si>
   <si>
     <t>20,36%</t>
   </si>
   <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
   </si>
   <si>
     <t>73,51%</t>
   </si>
   <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>84,78%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>65,17%</t>
   </si>
   <si>
     <t>79,64%</t>
   </si>
   <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -830,55 +836,55 @@
     <t>26,23%</t>
   </si>
   <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
   </si>
   <si>
     <t>14,83%</t>
   </si>
   <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
   </si>
   <si>
     <t>19,89%</t>
   </si>
   <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
   </si>
   <si>
     <t>73,77%</t>
   </si>
   <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>85,17%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
   </si>
   <si>
     <t>80,11%</t>
   </si>
   <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8457DC62-8220-4CFC-AD10-F9788F95E490}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1782BE9-10BB-4AFD-B2CD-66B8DEB8FA39}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2179,7 +2185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C3FFA7-2FC3-4A17-80EA-4B42BAA45FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A361EC-4B22-4A56-92CC-62B0DC0022BE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2622,13 +2628,13 @@
         <v>24758</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -2637,13 +2643,13 @@
         <v>50573</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2664,13 @@
         <v>260315</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H11" s="7">
         <v>336</v>
@@ -2673,13 +2679,13 @@
         <v>233481</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>710</v>
@@ -2688,13 +2694,13 @@
         <v>493796</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,13 +2768,13 @@
         <v>5101</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2777,13 +2783,13 @@
         <v>3100</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2792,13 +2798,13 @@
         <v>8201</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,13 +2819,13 @@
         <v>58086</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -2828,13 +2834,13 @@
         <v>58493</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>164</v>
@@ -2843,13 +2849,13 @@
         <v>116579</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,13 +2923,13 @@
         <v>41759</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -2932,13 +2938,13 @@
         <v>38497</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -2947,13 +2953,13 @@
         <v>80256</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,13 +2974,13 @@
         <v>371325</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H17" s="7">
         <v>496</v>
@@ -2983,13 +2989,13 @@
         <v>345705</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M17" s="7">
         <v>1024</v>
@@ -2998,13 +3004,13 @@
         <v>717029</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,7 +3086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C0CEF9-F863-4358-8DC5-2EE5196FD6B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EE8FC1-F4C7-4E1C-A0C7-17B3E9EA51B2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3097,7 +3103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3347,13 @@
         <v>11014</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3356,13 +3362,13 @@
         <v>6490</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3371,13 +3377,13 @@
         <v>17503</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3398,13 @@
         <v>37460</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>59</v>
@@ -3407,13 +3413,13 @@
         <v>39487</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>114</v>
@@ -3574,7 +3580,7 @@
         <v>677</v>
       </c>
       <c r="N11" s="7">
-        <v>464107</v>
+        <v>464106</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>194</v>
@@ -3625,7 +3631,7 @@
         <v>749</v>
       </c>
       <c r="N12" s="7">
-        <v>512365</v>
+        <v>512364</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>32</v>
@@ -3654,10 +3660,10 @@
         <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3666,13 +3672,13 @@
         <v>2978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -3681,13 +3687,13 @@
         <v>8799</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3708,13 @@
         <v>51346</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>78</v>
@@ -3717,13 +3723,13 @@
         <v>54169</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>151</v>
@@ -3732,13 +3738,13 @@
         <v>105515</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3812,13 @@
         <v>44676</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -3821,13 +3827,13 @@
         <v>29884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -3836,13 +3842,13 @@
         <v>74560</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3863,13 @@
         <v>319331</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>489</v>
@@ -3872,13 +3878,13 @@
         <v>327238</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>942</v>
@@ -3887,13 +3893,13 @@
         <v>646570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544A1FCF-27E3-41FD-BD9B-62E2FC3D1FC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9710494-43D7-4567-95BE-09F4BEF63A7C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3986,7 +3992,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4230,13 +4236,13 @@
         <v>938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4245,13 +4251,13 @@
         <v>783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -4260,13 +4266,13 @@
         <v>1721</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4281,10 +4287,10 @@
         <v>2841</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>63</v>
@@ -4296,10 +4302,10 @@
         <v>2497</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>63</v>
@@ -4311,13 +4317,13 @@
         <v>5337</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,13 +4391,13 @@
         <v>5413</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4400,13 +4406,13 @@
         <v>3714</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>246</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -4415,13 +4421,13 @@
         <v>9126</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,13 +4442,13 @@
         <v>15024</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>32</v>
@@ -4451,13 +4457,13 @@
         <v>20680</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>54</v>
@@ -4466,13 +4472,13 @@
         <v>35705</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,7 +4565,7 @@
         <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4574,7 +4580,7 @@
         <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,7 +4611,7 @@
         <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>32</v>
@@ -4620,7 +4626,7 @@
         <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>32</v>
@@ -4689,13 +4695,13 @@
         <v>6351</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4704,13 +4710,13 @@
         <v>4497</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4719,13 +4725,13 @@
         <v>10848</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4746,13 @@
         <v>17865</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -4755,13 +4761,13 @@
         <v>25825</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4770,13 +4776,13 @@
         <v>43689</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP36A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP36A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2979C707-D739-407A-A1A9-2F39A167F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D668DF5-CB70-442C-9F16-B3736C1B3A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A1AA90C-BDC6-460D-A0EF-E07DE39397D2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B86D727C-65AE-48E6-9822-FBC7F5CC82E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Adultos según si perciben alguna pensión en 2007 (Tasa respuesta: 44,01%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,823 +68,862 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2012 (Tasa respuesta: 54,41%)</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2016 (Tasa respuesta: 49,58%)</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>Adultos según si perciben alguna pensión en 2023 (Tasa respuesta: 34,43%)</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>86,24%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2012 (Tasa respuesta: 54,41%)</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2016 (Tasa respuesta: 49,58%)</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>Adultos según si perciben alguna pensión en 2023 (Tasa respuesta: 4,06%)</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1335,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1782BE9-10BB-4AFD-B2CD-66B8DEB8FA39}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280F7C02-56D9-4707-B226-2594224F8BEB}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1414,88 +1453,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11378</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10370</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>21748</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47348</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="I5" s="7">
+        <v>42301</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>135</v>
+      </c>
+      <c r="N5" s="7">
+        <v>89649</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,147 +1555,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="D6" s="7">
+        <v>58726</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="I6" s="7">
+        <v>52671</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="N6" s="7">
+        <v>111397</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7">
-        <v>10370</v>
+        <v>8538</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>11378</v>
+        <v>10354</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N7" s="7">
-        <v>21748</v>
+        <v>18892</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="D8" s="7">
-        <v>42301</v>
+        <v>187158</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>72</v>
+        <v>319</v>
       </c>
       <c r="I8" s="7">
-        <v>47348</v>
+        <v>211629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>135</v>
+        <v>599</v>
       </c>
       <c r="N8" s="7">
-        <v>89649</v>
+        <v>398787</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1653,153 +1710,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="D9" s="7">
-        <v>52671</v>
+        <v>195696</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>88</v>
+        <v>335</v>
       </c>
       <c r="I9" s="7">
-        <v>58726</v>
+        <v>221983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>167</v>
+        <v>628</v>
       </c>
       <c r="N9" s="7">
-        <v>111397</v>
+        <v>417679</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>10354</v>
+        <v>2583</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>8538</v>
+        <v>1400</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="7">
+        <v>6</v>
+      </c>
+      <c r="N10" s="7">
+        <v>3984</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M10" s="7">
-        <v>29</v>
-      </c>
-      <c r="N10" s="7">
-        <v>18892</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>319</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>211629</v>
+        <v>44483</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>280</v>
+        <v>59</v>
       </c>
       <c r="I11" s="7">
-        <v>187158</v>
+        <v>39576</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="7">
+        <v>125</v>
+      </c>
+      <c r="N11" s="7">
+        <v>84058</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" s="7">
-        <v>599</v>
-      </c>
-      <c r="N11" s="7">
-        <v>398787</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1808,153 +1865,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>335</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>221983</v>
+        <v>47066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>293</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>195696</v>
+        <v>40976</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>628</v>
+        <v>131</v>
       </c>
       <c r="N12" s="7">
-        <v>417679</v>
+        <v>88042</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>1400</v>
+        <v>22499</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="I13" s="7">
-        <v>2583</v>
+        <v>22125</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="N13" s="7">
-        <v>3984</v>
+        <v>44624</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>59</v>
+        <v>418</v>
       </c>
       <c r="D14" s="7">
-        <v>39576</v>
+        <v>278989</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>66</v>
+        <v>441</v>
       </c>
       <c r="I14" s="7">
-        <v>44483</v>
+        <v>293505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>125</v>
+        <v>859</v>
       </c>
       <c r="N14" s="7">
-        <v>84058</v>
+        <v>572494</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,216 +2020,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>61</v>
+        <v>451</v>
       </c>
       <c r="D15" s="7">
-        <v>40976</v>
+        <v>301488</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>70</v>
+        <v>475</v>
       </c>
       <c r="I15" s="7">
-        <v>47066</v>
+        <v>315630</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>131</v>
+        <v>926</v>
       </c>
       <c r="N15" s="7">
-        <v>88042</v>
+        <v>617118</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>34</v>
-      </c>
-      <c r="D16" s="7">
-        <v>22125</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="7">
-        <v>33</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22499</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="7">
-        <v>67</v>
-      </c>
-      <c r="N16" s="7">
-        <v>44624</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>441</v>
-      </c>
-      <c r="D17" s="7">
-        <v>293505</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="7">
-        <v>418</v>
-      </c>
-      <c r="I17" s="7">
-        <v>278989</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M17" s="7">
-        <v>859</v>
-      </c>
-      <c r="N17" s="7">
-        <v>572494</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>475</v>
-      </c>
-      <c r="D18" s="7">
-        <v>315630</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>451</v>
-      </c>
-      <c r="I18" s="7">
-        <v>301488</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>926</v>
-      </c>
-      <c r="N18" s="7">
-        <v>617118</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2185,8 +2086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A361EC-4B22-4A56-92CC-62B0DC0022BE}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F8D575-39D3-4EEF-AFCA-F8564BE51BF9}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2202,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2303,96 +2204,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>10638</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10202</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>641</v>
+        <v>20841</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>53731</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="I5" s="7">
+        <v>52924</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>106654</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,151 +2306,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>64369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I6" s="7">
+        <v>63126</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>127495</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D7" s="7">
-        <v>10202</v>
+        <v>24758</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>10638</v>
+        <v>25814</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M7" s="7">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7">
-        <v>20841</v>
+        <v>50573</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>73</v>
+        <v>336</v>
       </c>
       <c r="D8" s="7">
-        <v>52924</v>
+        <v>233481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="H8" s="7">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="I8" s="7">
-        <v>53731</v>
+        <v>260315</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>150</v>
+        <v>710</v>
       </c>
       <c r="N8" s="7">
-        <v>106654</v>
+        <v>493796</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,153 +2461,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>89</v>
+        <v>372</v>
       </c>
       <c r="D9" s="7">
-        <v>63126</v>
+        <v>258239</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>94</v>
+        <v>411</v>
       </c>
       <c r="I9" s="7">
-        <v>64369</v>
+        <v>286129</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>183</v>
+        <v>783</v>
       </c>
       <c r="N9" s="7">
-        <v>127495</v>
+        <v>544369</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>25814</v>
+        <v>3100</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>24758</v>
+        <v>5101</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>50573</v>
+        <v>8201</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>374</v>
+        <v>83</v>
       </c>
       <c r="D11" s="7">
-        <v>260315</v>
+        <v>58493</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>336</v>
+        <v>81</v>
       </c>
       <c r="I11" s="7">
-        <v>233481</v>
+        <v>58086</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>710</v>
+        <v>164</v>
       </c>
       <c r="N11" s="7">
-        <v>493796</v>
+        <v>116579</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,153 +2616,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>411</v>
+        <v>87</v>
       </c>
       <c r="D12" s="7">
-        <v>286129</v>
+        <v>61593</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>372</v>
+        <v>88</v>
       </c>
       <c r="I12" s="7">
-        <v>258239</v>
+        <v>63187</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>783</v>
+        <v>175</v>
       </c>
       <c r="N12" s="7">
-        <v>544369</v>
+        <v>124780</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>5101</v>
+        <v>38497</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>3100</v>
+        <v>41117</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="N13" s="7">
-        <v>8201</v>
+        <v>79615</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>81</v>
+        <v>496</v>
       </c>
       <c r="D14" s="7">
-        <v>58086</v>
+        <v>345705</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>83</v>
+        <v>528</v>
       </c>
       <c r="I14" s="7">
-        <v>58493</v>
+        <v>371325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>164</v>
+        <v>1024</v>
       </c>
       <c r="N14" s="7">
-        <v>116579</v>
+        <v>717029</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,216 +2771,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>88</v>
+        <v>553</v>
       </c>
       <c r="D15" s="7">
-        <v>63187</v>
+        <v>384202</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>87</v>
+        <v>588</v>
       </c>
       <c r="I15" s="7">
-        <v>61593</v>
+        <v>412442</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>175</v>
+        <v>1141</v>
       </c>
       <c r="N15" s="7">
-        <v>124780</v>
+        <v>796644</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>61</v>
-      </c>
-      <c r="D16" s="7">
-        <v>41759</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="7">
-        <v>57</v>
-      </c>
-      <c r="I16" s="7">
-        <v>38497</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M16" s="7">
-        <v>118</v>
-      </c>
-      <c r="N16" s="7">
-        <v>80256</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>528</v>
-      </c>
-      <c r="D17" s="7">
-        <v>371325</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="7">
-        <v>496</v>
-      </c>
-      <c r="I17" s="7">
-        <v>345705</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1024</v>
-      </c>
-      <c r="N17" s="7">
-        <v>717029</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>589</v>
-      </c>
-      <c r="D18" s="7">
-        <v>413084</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>553</v>
-      </c>
-      <c r="I18" s="7">
-        <v>384202</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1142</v>
-      </c>
-      <c r="N18" s="7">
-        <v>797285</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>87</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3086,8 +2837,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4EE8FC1-F4C7-4E1C-A0C7-17B3E9EA51B2}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956CC447-012B-4005-B563-DF3DA2C667F7}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3103,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3204,88 +2955,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6490</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11014</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="N4" s="7">
+        <v>17503</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="D5" s="7">
+        <v>39487</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="I5" s="7">
+        <v>37460</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="N5" s="7">
+        <v>76948</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,147 +3057,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45977</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="I6" s="7">
+        <v>48474</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="N6" s="7">
+        <v>94451</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>11014</v>
+        <v>20416</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I7" s="7">
-        <v>6490</v>
+        <v>27842</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>17503</v>
+        <v>48258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>55</v>
+        <v>352</v>
       </c>
       <c r="D8" s="7">
-        <v>37460</v>
+        <v>233582</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
-        <v>59</v>
+        <v>325</v>
       </c>
       <c r="I8" s="7">
-        <v>39487</v>
+        <v>230525</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
-        <v>114</v>
+        <v>677</v>
       </c>
       <c r="N8" s="7">
-        <v>76948</v>
+        <v>464107</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,153 +3212,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>385</v>
       </c>
       <c r="D9" s="7">
-        <v>48474</v>
+        <v>253998</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>364</v>
       </c>
       <c r="I9" s="7">
-        <v>45977</v>
+        <v>258367</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>140</v>
+        <v>749</v>
       </c>
       <c r="N9" s="7">
-        <v>94451</v>
+        <v>512365</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>27842</v>
+        <v>2978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>20416</v>
+        <v>5821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>48258</v>
+        <v>8799</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>325</v>
+        <v>78</v>
       </c>
       <c r="D11" s="7">
-        <v>230525</v>
+        <v>54169</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H11" s="7">
-        <v>352</v>
+        <v>73</v>
       </c>
       <c r="I11" s="7">
-        <v>233582</v>
+        <v>51346</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
-        <v>677</v>
+        <v>151</v>
       </c>
       <c r="N11" s="7">
-        <v>464106</v>
+        <v>105515</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3598,153 +3367,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>364</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7">
-        <v>258367</v>
+        <v>57147</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="I12" s="7">
-        <v>253998</v>
+        <v>57167</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>749</v>
+        <v>165</v>
       </c>
       <c r="N12" s="7">
-        <v>512364</v>
+        <v>114314</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>5821</v>
+        <v>29884</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>2978</v>
+        <v>44676</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>105</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="N13" s="7">
-        <v>8799</v>
+        <v>74560</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>73</v>
+        <v>489</v>
       </c>
       <c r="D14" s="7">
-        <v>51346</v>
+        <v>327238</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="I14" s="7">
-        <v>54169</v>
+        <v>319331</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="M14" s="7">
-        <v>151</v>
+        <v>942</v>
       </c>
       <c r="N14" s="7">
-        <v>105515</v>
+        <v>646570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,216 +3522,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>82</v>
+        <v>537</v>
       </c>
       <c r="D15" s="7">
-        <v>57167</v>
+        <v>357122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>83</v>
+        <v>517</v>
       </c>
       <c r="I15" s="7">
-        <v>57147</v>
+        <v>364007</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>165</v>
+        <v>1054</v>
       </c>
       <c r="N15" s="7">
-        <v>114314</v>
+        <v>721130</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>64</v>
-      </c>
-      <c r="D16" s="7">
-        <v>44676</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H16" s="7">
-        <v>48</v>
-      </c>
-      <c r="I16" s="7">
-        <v>29884</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M16" s="7">
-        <v>112</v>
-      </c>
-      <c r="N16" s="7">
-        <v>74560</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>453</v>
-      </c>
-      <c r="D17" s="7">
-        <v>319331</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="7">
-        <v>489</v>
-      </c>
-      <c r="I17" s="7">
-        <v>327238</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M17" s="7">
-        <v>942</v>
-      </c>
-      <c r="N17" s="7">
-        <v>646570</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>517</v>
-      </c>
-      <c r="D18" s="7">
-        <v>364007</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>537</v>
-      </c>
-      <c r="I18" s="7">
-        <v>357122</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1054</v>
-      </c>
-      <c r="N18" s="7">
-        <v>721130</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>87</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3975,8 +3588,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9710494-43D7-4567-95BE-09F4BEF63A7C}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B85AFD6-27FF-4BDE-A8A0-0DDEF40CF6B5}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3992,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4093,88 +3706,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11316</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>13026</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="N4" s="7">
+        <v>24342</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D5" s="7">
+        <v>23924</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I5" s="7">
+        <v>24889</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="N5" s="7">
+        <v>48813</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,147 +3808,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="7">
+        <v>35240</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>53</v>
+      </c>
+      <c r="I6" s="7">
+        <v>37915</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="N6" s="7">
+        <v>73155</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>938</v>
+        <v>28805</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>54</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>783</v>
+        <v>29827</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>54</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="N7" s="7">
-        <v>1721</v>
+        <v>58632</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>213</v>
       </c>
       <c r="D8" s="7">
-        <v>2841</v>
+        <v>174103</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="I8" s="7">
-        <v>2497</v>
+        <v>165231</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>63</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
-        <v>7</v>
+        <v>424</v>
       </c>
       <c r="N8" s="7">
-        <v>5337</v>
+        <v>339334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,153 +3963,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="D9" s="7">
-        <v>3779</v>
+        <v>202908</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>248</v>
       </c>
       <c r="I9" s="7">
-        <v>3280</v>
+        <v>195058</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>10</v>
+        <v>503</v>
       </c>
       <c r="N9" s="7">
-        <v>7058</v>
+        <v>397966</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>5413</v>
+        <v>1276</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>3714</v>
+        <v>5198</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>9126</v>
+        <v>6474</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>15024</v>
+        <v>20854</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>20680</v>
+        <v>19718</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N11" s="7">
-        <v>35705</v>
+        <v>40572</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,149 +4118,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D12" s="7">
-        <v>20437</v>
+        <v>22130</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>32</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="7">
-        <v>36</v>
-      </c>
       <c r="I12" s="7">
-        <v>24394</v>
+        <v>24916</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N12" s="7">
-        <v>44831</v>
+        <v>47046</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D13" s="7">
+        <v>41397</v>
+      </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>48051</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>89448</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="D14" s="7">
+        <v>218881</v>
+      </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>11</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>270</v>
       </c>
       <c r="I14" s="7">
-        <v>2648</v>
+        <v>209837</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>32</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>542</v>
       </c>
       <c r="N14" s="7">
-        <v>2648</v>
+        <v>428719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>32</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,214 +4273,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>328</v>
+      </c>
+      <c r="D15" s="7">
+        <v>260278</v>
+      </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>4</v>
+        <v>333</v>
       </c>
       <c r="I15" s="7">
-        <v>2648</v>
+        <v>257888</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>4</v>
+        <v>661</v>
       </c>
       <c r="N15" s="7">
-        <v>2648</v>
+        <v>518167</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>8</v>
-      </c>
-      <c r="D16" s="7">
-        <v>6351</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4497</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M16" s="7">
-        <v>13</v>
-      </c>
-      <c r="N16" s="7">
-        <v>10848</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="7">
-        <v>25</v>
-      </c>
-      <c r="D17" s="7">
-        <v>17865</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H17" s="7">
-        <v>40</v>
-      </c>
-      <c r="I17" s="7">
-        <v>25825</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="M17" s="7">
-        <v>65</v>
-      </c>
-      <c r="N17" s="7">
-        <v>43689</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>33</v>
-      </c>
-      <c r="D18" s="7">
-        <v>24216</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="7">
-        <v>45</v>
-      </c>
-      <c r="I18" s="7">
-        <v>30322</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="7">
-        <v>78</v>
-      </c>
-      <c r="N18" s="7">
-        <v>54537</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>87</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
